--- a/biology/Zoologie/Les_Chiens_(film,_1979)/Les_Chiens_(film,_1979).xlsx
+++ b/biology/Zoologie/Les_Chiens_(film,_1979)/Les_Chiens_(film,_1979).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chiens, sorti en 1979, est un film français d'Alain Jessua, qui en est le co-scénariste avec André Ruellan.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jeune médecin, le docteur Henri Ferret, vient de s'installer en région parisienne. Nombre de ses patients consultent après avoir été victimes de morsures. Il apprend que, pour se protéger des agressions nocturnes, les habitants ont acheté des chiens de garde ... Morel , qui dresse les chiens, ainsi que quelques habitantes, portent un amour excessif à ces animaux, alors que ceux-ci se montrent parfois dangereux et imprévisibles, notamment lorsqu'un chien tue sans raison.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Les Chiens
 Réalisation : Alain Jessua
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gérard Depardieu : Morel
 Victor Lanoux : le docteur Henri Ferret
@@ -631,10 +649,12 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le tournage s'est déroulé en 1978 à  Torcy et notamment dans le nouveau quartier de l'Arche-Guédon, la place des Commerces et l'hypermarché Continent[1].
-Une scène a été tournée au bowling de la Matène à Fontenay-sous-bois[2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le tournage s'est déroulé en 1978 à  Torcy et notamment dans le nouveau quartier de l'Arche-Guédon, la place des Commerces et l'hypermarché Continent.
+Une scène a été tournée au bowling de la Matène à Fontenay-sous-bois
 Le dernier plan du film montre la place de Tournan-en-Brie avec la fontaine et l'hôtel de la croix blanche.</t>
         </is>
       </c>
@@ -663,7 +683,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Nomination au prix du meilleur film, lors du Festival international du film de Moscou en 1979.</t>
         </is>
